--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H2">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I2">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J2">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N2">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O2">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P2">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q2">
-        <v>194.6322057787655</v>
+        <v>92.66728959571802</v>
       </c>
       <c r="R2">
-        <v>778.5288231150619</v>
+        <v>370.6691583828721</v>
       </c>
       <c r="S2">
-        <v>0.07327759323826502</v>
+        <v>0.05173374748401875</v>
       </c>
       <c r="T2">
-        <v>0.04707263640160514</v>
+        <v>0.0355870729621741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H3">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I3">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J3">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P3">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q3">
-        <v>47.76980427033033</v>
+        <v>36.70836384642933</v>
       </c>
       <c r="R3">
-        <v>286.618825621982</v>
+        <v>220.250183078576</v>
       </c>
       <c r="S3">
-        <v>0.01798497978475207</v>
+        <v>0.02049332870387967</v>
       </c>
       <c r="T3">
-        <v>0.01732999904919975</v>
+        <v>0.02114570138326262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H4">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I4">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J4">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N4">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O4">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P4">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q4">
-        <v>74.50969059038783</v>
+        <v>30.09712474433334</v>
       </c>
       <c r="R4">
-        <v>447.058143542327</v>
+        <v>180.582748466</v>
       </c>
       <c r="S4">
-        <v>0.02805235021380568</v>
+        <v>0.01680244515957334</v>
       </c>
       <c r="T4">
-        <v>0.02703073388746501</v>
+        <v>0.01733732440380567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H5">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I5">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J5">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N5">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O5">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P5">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q5">
-        <v>16.54800192344575</v>
+        <v>24.52447513326</v>
       </c>
       <c r="R5">
-        <v>66.192007693783</v>
+        <v>98.09790053304</v>
       </c>
       <c r="S5">
-        <v>0.006230200952614289</v>
+        <v>0.01369137922623342</v>
       </c>
       <c r="T5">
-        <v>0.004002205465424618</v>
+        <v>0.009418148407425487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H6">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I6">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J6">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N6">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O6">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P6">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q6">
-        <v>101.3044911407623</v>
+        <v>19.144590158236</v>
       </c>
       <c r="R6">
-        <v>607.826946844574</v>
+        <v>114.867540949416</v>
       </c>
       <c r="S6">
-        <v>0.03814039544647702</v>
+        <v>0.01068792879614963</v>
       </c>
       <c r="T6">
-        <v>0.03675139059004848</v>
+        <v>0.01102816209092318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.0315905</v>
+        <v>2.329604</v>
       </c>
       <c r="H7">
-        <v>6.063181</v>
+        <v>4.659208</v>
       </c>
       <c r="I7">
-        <v>0.180036816325923</v>
+        <v>0.1486587836891423</v>
       </c>
       <c r="J7">
-        <v>0.1479427771590296</v>
+        <v>0.1308884900637344</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N7">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O7">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P7">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q7">
-        <v>43.43058773466366</v>
+        <v>63.14094539836533</v>
       </c>
       <c r="R7">
-        <v>260.583526407982</v>
+        <v>378.845672390192</v>
       </c>
       <c r="S7">
-        <v>0.01635129669000894</v>
+        <v>0.03524995431928752</v>
       </c>
       <c r="T7">
-        <v>0.01575581176528658</v>
+        <v>0.03637208081614337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I8">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J8">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N8">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O8">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P8">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q8">
-        <v>148.2808740997723</v>
+        <v>91.87245627142551</v>
       </c>
       <c r="R8">
-        <v>889.6852445986337</v>
+        <v>551.234737628553</v>
       </c>
       <c r="S8">
-        <v>0.05582665794605588</v>
+        <v>0.0512900126270889</v>
       </c>
       <c r="T8">
-        <v>0.05379355110231421</v>
+        <v>0.05292274898957083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I9">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J9">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P9">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q9">
         <v>36.39350591767488</v>
@@ -1013,10 +1013,10 @@
         <v>327.5415532590739</v>
       </c>
       <c r="S9">
-        <v>0.01370188716959361</v>
+        <v>0.02031755167780512</v>
       </c>
       <c r="T9">
-        <v>0.01980433348798782</v>
+        <v>0.03144649316071372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I10">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J10">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N10">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O10">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P10">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q10">
-        <v>56.76533339094321</v>
+        <v>29.83897326697222</v>
       </c>
       <c r="R10">
-        <v>510.8880005184889</v>
+        <v>268.55075940275</v>
       </c>
       <c r="S10">
-        <v>0.02137173030338157</v>
+        <v>0.01665832587648336</v>
       </c>
       <c r="T10">
-        <v>0.03089011527424928</v>
+        <v>0.0257829259672081</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I11">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J11">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N11">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O11">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P11">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q11">
-        <v>12.60712316338016</v>
+        <v>24.314121834035</v>
       </c>
       <c r="R11">
-        <v>75.642738980281</v>
+        <v>145.88473100421</v>
       </c>
       <c r="S11">
-        <v>0.00474648909914204</v>
+        <v>0.01357394442791339</v>
       </c>
       <c r="T11">
-        <v>0.004573630471628717</v>
+        <v>0.01400604946190705</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I12">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J12">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N12">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O12">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P12">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q12">
-        <v>77.17899736315754</v>
+        <v>18.98038164081767</v>
       </c>
       <c r="R12">
-        <v>694.6109762684179</v>
+        <v>170.823434767359</v>
       </c>
       <c r="S12">
-        <v>0.029057324571161</v>
+        <v>0.01059625543425562</v>
       </c>
       <c r="T12">
-        <v>0.04199866331938588</v>
+        <v>0.01640035567900137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.928866999999999</v>
       </c>
       <c r="I13">
-        <v>0.1371613520389983</v>
+        <v>0.1473836956214928</v>
       </c>
       <c r="J13">
-        <v>0.1690656812893354</v>
+        <v>0.1946487341802378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N13">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O13">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P13">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q13">
-        <v>33.08766648456377</v>
+        <v>62.59936780665087</v>
       </c>
       <c r="R13">
-        <v>297.7889983610739</v>
+        <v>563.3943102598579</v>
       </c>
       <c r="S13">
-        <v>0.01245726294966422</v>
+        <v>0.0349476055779464</v>
       </c>
       <c r="T13">
-        <v>0.01800538763376945</v>
+        <v>0.05409016092183667</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H14">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I14">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J14">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N14">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O14">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P14">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q14">
-        <v>69.91522843809933</v>
+        <v>17.651889709414</v>
       </c>
       <c r="R14">
-        <v>419.4913706285959</v>
+        <v>105.911338256484</v>
       </c>
       <c r="S14">
-        <v>0.02632256902267697</v>
+        <v>0.009854592799968654</v>
       </c>
       <c r="T14">
-        <v>0.02536394822763351</v>
+        <v>0.0101682981624326</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H15">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I15">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J15">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P15">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q15">
-        <v>17.15973348110622</v>
+        <v>6.992456484452443</v>
       </c>
       <c r="R15">
-        <v>154.437601329956</v>
+        <v>62.93210836007199</v>
       </c>
       <c r="S15">
-        <v>0.006460513382532527</v>
+        <v>0.003903707334463441</v>
       </c>
       <c r="T15">
-        <v>0.009337849593099311</v>
+        <v>0.006041963517126583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H16">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I16">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J16">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N16">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O16">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P16">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q16">
-        <v>26.76515953582956</v>
+        <v>5.733103114111112</v>
       </c>
       <c r="R16">
-        <v>240.886435822466</v>
+        <v>51.597928027</v>
       </c>
       <c r="S16">
-        <v>0.01007688560881411</v>
+        <v>0.003200642967968828</v>
       </c>
       <c r="T16">
-        <v>0.01456485523834443</v>
+        <v>0.004953795555596743</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H17">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I17">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J17">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N17">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O17">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P17">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q17">
-        <v>5.944326274485667</v>
+        <v>4.67158726798</v>
       </c>
       <c r="R17">
-        <v>35.665957646914</v>
+        <v>28.02952360788</v>
       </c>
       <c r="S17">
-        <v>0.002237995099908665</v>
+        <v>0.002608026166791026</v>
       </c>
       <c r="T17">
-        <v>0.002156491328748275</v>
+        <v>0.002691048551437019</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H18">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I18">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J18">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N18">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O18">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P18">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q18">
-        <v>36.39031172447689</v>
+        <v>3.646790528561333</v>
       </c>
       <c r="R18">
-        <v>327.512805520292</v>
+        <v>32.821114757052</v>
       </c>
       <c r="S18">
-        <v>0.01370068457935964</v>
+        <v>0.002035908691780935</v>
       </c>
       <c r="T18">
-        <v>0.01980259529690886</v>
+        <v>0.003151077933364606</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.088999333333333</v>
+        <v>0.4437586666666666</v>
       </c>
       <c r="H19">
-        <v>3.266998</v>
+        <v>1.331276</v>
       </c>
       <c r="I19">
-        <v>0.06467231407222906</v>
+        <v>0.02831752677201027</v>
       </c>
       <c r="J19">
-        <v>0.07971537664684515</v>
+        <v>0.03739878226043741</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N19">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O19">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P19">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q19">
-        <v>15.60101243532844</v>
+        <v>12.02751271978044</v>
       </c>
       <c r="R19">
-        <v>140.409111917956</v>
+        <v>108.247614478024</v>
       </c>
       <c r="S19">
-        <v>0.005873666378937152</v>
+        <v>0.006714648811037385</v>
       </c>
       <c r="T19">
-        <v>0.008489636962110766</v>
+        <v>0.01039259854047986</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H20">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I20">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J20">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N20">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O20">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P20">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q20">
-        <v>417.3922753569755</v>
+        <v>361.4265111028996</v>
       </c>
       <c r="R20">
-        <v>1669.569101427902</v>
+        <v>1445.706044411598</v>
       </c>
       <c r="S20">
-        <v>0.1571451202128813</v>
+        <v>0.2017750593656222</v>
       </c>
       <c r="T20">
-        <v>0.1009481176874231</v>
+        <v>0.1387988326538608</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H21">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I21">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J21">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P21">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q21">
-        <v>102.4432067548703</v>
+        <v>143.172158495114</v>
       </c>
       <c r="R21">
-        <v>614.659240529222</v>
+        <v>859.0329509706839</v>
       </c>
       <c r="S21">
-        <v>0.03856911349573713</v>
+        <v>0.07992930759755805</v>
       </c>
       <c r="T21">
-        <v>0.03716449549619642</v>
+        <v>0.08247373058086632</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H22">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I22">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J22">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N22">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O22">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P22">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q22">
-        <v>159.7873752045778</v>
+        <v>117.38660791775</v>
       </c>
       <c r="R22">
-        <v>958.724251227467</v>
+        <v>704.3196475065001</v>
       </c>
       <c r="S22">
-        <v>0.06015877093927757</v>
+        <v>0.06553390261565405</v>
       </c>
       <c r="T22">
-        <v>0.05796789630325837</v>
+        <v>0.06762007066856296</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H23">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I23">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J23">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N23">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O23">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P23">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q23">
-        <v>35.48748855721075</v>
+        <v>95.651826256215</v>
       </c>
       <c r="R23">
-        <v>141.949954228843</v>
+        <v>382.60730502486</v>
       </c>
       <c r="S23">
-        <v>0.01336077830047685</v>
+        <v>0.05339993699516728</v>
       </c>
       <c r="T23">
-        <v>0.00858280179775857</v>
+        <v>0.03673322630666879</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H24">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I24">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J24">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N24">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O24">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P24">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q24">
-        <v>217.2493082115423</v>
+        <v>74.66887676949901</v>
       </c>
       <c r="R24">
-        <v>1303.495849269254</v>
+        <v>448.013260616994</v>
       </c>
       <c r="S24">
-        <v>0.08179276587203277</v>
+        <v>0.04168569980368858</v>
       </c>
       <c r="T24">
-        <v>0.07881401990762851</v>
+        <v>0.04301269807058004</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.5013005</v>
+        <v>9.086061000000001</v>
       </c>
       <c r="H25">
-        <v>13.002601</v>
+        <v>18.172122</v>
       </c>
       <c r="I25">
-        <v>0.3860921994570611</v>
+        <v>0.579807888716431</v>
       </c>
       <c r="J25">
-        <v>0.3172659536686724</v>
+        <v>0.5104991255668281</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N25">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O25">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P25">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q25">
-        <v>93.13767863920366</v>
+        <v>246.266095648538</v>
       </c>
       <c r="R25">
-        <v>558.8260718352219</v>
+        <v>1477.596573891228</v>
       </c>
       <c r="S25">
-        <v>0.03506565063665539</v>
+        <v>0.1374839823387408</v>
       </c>
       <c r="T25">
-        <v>0.03378862247640752</v>
+        <v>0.1418605672862892</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H26">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I26">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J26">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N26">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O26">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P26">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q26">
-        <v>149.8735384144796</v>
+        <v>26.6158779328625</v>
       </c>
       <c r="R26">
-        <v>899.241230486878</v>
+        <v>159.695267597175</v>
       </c>
       <c r="S26">
-        <v>0.05642628434062536</v>
+        <v>0.01485895523707862</v>
       </c>
       <c r="T26">
-        <v>0.05437134017809477</v>
+        <v>0.01533196655607479</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H27">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I27">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J27">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O27">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P27">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q27">
-        <v>36.78440352003977</v>
+        <v>10.54336795123889</v>
       </c>
       <c r="R27">
-        <v>331.059631680358</v>
+        <v>94.89031156114997</v>
       </c>
       <c r="S27">
-        <v>0.01384905724039098</v>
+        <v>0.005886089229545058</v>
       </c>
       <c r="T27">
-        <v>0.02001704908879861</v>
+        <v>0.009110195344178156</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H28">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I28">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J28">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N28">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O28">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P28">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q28">
-        <v>57.37504196835145</v>
+        <v>8.644489353472222</v>
       </c>
       <c r="R28">
-        <v>516.375377715163</v>
+        <v>77.80040418125</v>
       </c>
       <c r="S28">
-        <v>0.02160128109612132</v>
+        <v>0.004825994493762396</v>
       </c>
       <c r="T28">
-        <v>0.0312219017205673</v>
+        <v>0.007469433583748397</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H29">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I29">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J29">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N29">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O29">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P29">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q29">
-        <v>12.74253452573783</v>
+        <v>7.043914194125</v>
       </c>
       <c r="R29">
-        <v>76.455207154427</v>
+        <v>42.26348516474999</v>
       </c>
       <c r="S29">
-        <v>0.004797470480619901</v>
+        <v>0.003932434840899855</v>
       </c>
       <c r="T29">
-        <v>0.004622755202549306</v>
+        <v>0.004057617679214013</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H30">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I30">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J30">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N30">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O30">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P30">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q30">
-        <v>78.0079662756451</v>
+        <v>5.498704849891666</v>
       </c>
       <c r="R30">
-        <v>702.0716964808061</v>
+        <v>49.488343649025</v>
       </c>
       <c r="S30">
-        <v>0.02936942526658999</v>
+        <v>0.003069784488512648</v>
       </c>
       <c r="T30">
-        <v>0.04244976514044196</v>
+        <v>0.004751259327585797</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>2.334429666666667</v>
+        <v>0.6691083333333333</v>
       </c>
       <c r="H31">
-        <v>7.003289000000001</v>
+        <v>2.007325</v>
       </c>
       <c r="I31">
-        <v>0.1386345831085869</v>
+        <v>0.04269774218691354</v>
       </c>
       <c r="J31">
-        <v>0.1708815923369734</v>
+        <v>0.05639064371395002</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N31">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O31">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P31">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q31">
-        <v>33.44305652381755</v>
+        <v>18.13532803883889</v>
       </c>
       <c r="R31">
-        <v>300.987508714358</v>
+        <v>163.21795234955</v>
       </c>
       <c r="S31">
-        <v>0.01259106468423929</v>
+        <v>0.01012448389711496</v>
       </c>
       <c r="T31">
-        <v>0.01819878100652151</v>
+        <v>0.01567017122314886</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H32">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I32">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J32">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N32">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O32">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P32">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q32">
-        <v>100.974793429833</v>
+        <v>33.121604271964</v>
       </c>
       <c r="R32">
-        <v>605.8487605789978</v>
+        <v>198.729625631784</v>
       </c>
       <c r="S32">
-        <v>0.03801626668445431</v>
+        <v>0.01849093373882989</v>
       </c>
       <c r="T32">
-        <v>0.03663178237510593</v>
+        <v>0.01907956334419065</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H33">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I33">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J33">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O33">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P33">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q33">
-        <v>24.782877525742</v>
+        <v>13.12048626971911</v>
       </c>
       <c r="R33">
-        <v>223.045897731678</v>
+        <v>118.084376427472</v>
       </c>
       <c r="S33">
-        <v>0.009330571019008572</v>
+        <v>0.007324827633423609</v>
       </c>
       <c r="T33">
-        <v>0.01348615251363807</v>
+        <v>0.01133700288945177</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H34">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I34">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J34">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N34">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O34">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P34">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q34">
-        <v>38.655476290687</v>
+        <v>10.75746425577778</v>
       </c>
       <c r="R34">
-        <v>347.899286616183</v>
+        <v>96.817178302</v>
       </c>
       <c r="S34">
-        <v>0.01455350236990119</v>
+        <v>0.006005613650779328</v>
       </c>
       <c r="T34">
-        <v>0.02103523483913586</v>
+        <v>0.009295189282152861</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H35">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I35">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J35">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N35">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O35">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P35">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q35">
-        <v>8.5850698203345</v>
+        <v>8.765660071479999</v>
       </c>
       <c r="R35">
-        <v>51.510418922007</v>
+        <v>52.59396042888</v>
       </c>
       <c r="S35">
-        <v>0.003232215612516123</v>
+        <v>0.004893640967024103</v>
       </c>
       <c r="T35">
-        <v>0.003114504111881334</v>
+        <v>0.005049422280822639</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H36">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I36">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J36">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N36">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O36">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P36">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q36">
-        <v>52.55656444689399</v>
+        <v>6.842754783661333</v>
       </c>
       <c r="R36">
-        <v>473.009080022046</v>
+        <v>61.584793052952</v>
       </c>
       <c r="S36">
-        <v>0.01978715976695944</v>
+        <v>0.003820132752532286</v>
       </c>
       <c r="T36">
-        <v>0.02859982029881091</v>
+        <v>0.005912610947447703</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.572783</v>
+        <v>0.8326586666666667</v>
       </c>
       <c r="H37">
-        <v>4.718349</v>
+        <v>2.497976</v>
       </c>
       <c r="I37">
-        <v>0.0934027349972017</v>
+        <v>0.05313436301400996</v>
       </c>
       <c r="J37">
-        <v>0.1151286188991439</v>
+        <v>0.07017422421481227</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N37">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O37">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P37">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q37">
-        <v>22.531700791742</v>
+        <v>22.56815124264711</v>
       </c>
       <c r="R37">
-        <v>202.785307125678</v>
+        <v>203.113361183824</v>
       </c>
       <c r="S37">
-        <v>0.008483019544362052</v>
+        <v>0.01259921427142074</v>
       </c>
       <c r="T37">
-        <v>0.01226112476057175</v>
+        <v>0.01950043547074665</v>
       </c>
     </row>
   </sheetData>
